--- a/biology/Zoologie/Anatoliurus_kumlutasi/Anatoliurus_kumlutasi.xlsx
+++ b/biology/Zoologie/Anatoliurus_kumlutasi/Anatoliurus_kumlutasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anatoliurus kumlutasi est une espèce de scorpions de la famille des Iuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province d'Antalya en Turquie[1]. Elle se rencontre à Kaş dans la grotte Hıdırellez Mağarası.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province d'Antalya en Turquie. Elle se rencontre à Kaş dans la grotte Hıdırellez Mağarası.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 84,20 mm et la femelle paratype 82,40 mm, les mâles mesurent de 83,55 à 89,15 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 84,20 mm et la femelle paratype 82,40 mm, les mâles mesurent de 83,55 à 89,15 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Protoiurus kumlutasi par Yağmur, Soleglad, Fet et Kovařík en 2015. Elle est placée dans le genre Anatoliurus par Parmakelis, Dimitriadou, Evdokia, Gkigkiza, Stathi, Fet, Yağmur et Kovařík en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Protoiurus kumlutasi par Yağmur, Soleglad, Fet et Kovařík en 2015. Elle est placée dans le genre Anatoliurus par Parmakelis, Dimitriadou, Evdokia, Gkigkiza, Stathi, Fet, Yağmur et Kovařík en 2022.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est nommée en l'honneur de Yusuf Kumlutaş (d)[1], herpétologiste turc.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est nommée en l'honneur de Yusuf Kumlutaş (d), herpétologiste turc.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Yağmur, Soleglad, Fet &amp; Kovařík, 2015 : « Etudes on iurids, VIII. A new Protoiurus species from the Hıdırellez Cave in Antalya, Turkey (Scorpiones: Iuridae) ». Euscorpius, no 200, p. 1−25 (texte original).</t>
         </is>
